--- a/biology/Zoologie/Aedeomyia/Aedeomyia.xlsx
+++ b/biology/Zoologie/Aedeomyia/Aedeomyia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Aedeomyia regroupe des moustiques  (Culicidae), de la sous-famille des Culicinae. Selon certaines classifications, il est le seul genre de la tribu des Aedeomyiini et est divisé en 2 sous-genres, Aedeomyia (5 espèces) et Lepiothauma (1 espèce) (Enderlein, 1923).
 Ce genre ne comprend actuellement que sept espèces dans le monde, dont quatre en région afrotropicale, une en région australasienne, une en région néotropicale et une en région orientale et australasienne.
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des moustiques de petite taille (2 à 4 mm) dont le corps, les pattes et les ailes sont recouverts de larges écailles blanches, noires ou brunes. 
 Ils se reconnaissent au stade adulte par : 
@@ -549,7 +563,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves d'Aedeomyia ont été capturées en association avec des plantes aquatiques telles que Pistia stratiotes, Nitella, Myriophyllum, Azolla, Potamogeton, Utricularia, Spirogyra et se rencontrent donc dans des points d'eau pourvus d'une abondante végétation ou en bordure de rivière ou de fleuve. Elles peuvent rester immergées sur une longue période ce qui laisse penser qu'elles sont capables de respiration cuticulaire en particulier grâce à leurs larges antennes aplaties.
 Les adultes ne semblent pas piquer l'homme plus que les autres mammifères, les espèces du genre Aedeomyia étant avant tout ornithophiles.
@@ -581,7 +597,9 @@
           <t>Liste des espèces mondiales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Aedeomyia (Aedeomyia) madagascarica Brunhes, Boussès &amp; Ramos 2011 (Madagascar).
 Aedeomyia (Aedeomyia) africana (Neveu-Lemaire, 1906) (région afrotropicale hors Madagascar)
